--- a/Leçon chimie/LC 6/LC-6 Expériences.xlsx
+++ b/Leçon chimie/LC 6/LC-6 Expériences.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Dosage par étallonage du E131" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,6 @@
     <t>Concentration du sirop de menthe (mg/L)</t>
   </si>
   <si>
-    <t>incertitude regressi</t>
-  </si>
-  <si>
     <t>Dosage par étalonage des ions (Na+,Cl-) dans un sérum physiologique</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
     <t>Volume prélevée de S0 (L)</t>
   </si>
   <si>
-    <t>Faire celle-ci devant le jury … C'est la plus rapide</t>
-  </si>
-  <si>
     <t>Fiole jaugée 100 mL</t>
   </si>
   <si>
@@ -240,18 +234,12 @@
     <t>Absorbance de S4</t>
   </si>
   <si>
-    <t>On utilise ces valeurs/Incertitudes sur Regressi pour tracer la droite d'étallonage, sur excel j'ai essayé à droite mais c est pas terrible je trouve</t>
-  </si>
-  <si>
     <t>Dosage par étalonnage de la solution dilluée de menthe</t>
   </si>
   <si>
     <t>Courbe d'étallonage (Regressi)</t>
   </si>
   <si>
-    <t xml:space="preserve">Incertitude et valeurs proviennent d'excel </t>
-  </si>
-  <si>
     <t>Solution titrante d'AgNO3</t>
   </si>
   <si>
@@ -342,10 +330,22 @@
     <t xml:space="preserve">demi grad </t>
   </si>
   <si>
-    <t>∆titrage =0 car rupture brutale</t>
-  </si>
-  <si>
     <t>Titrage conductimétrique  des ions (Na+,Cl-) dans un sérum physiologique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incertitude et valeurs proviennent de Regressi </t>
+  </si>
+  <si>
+    <t>∆ titrage (L)</t>
+  </si>
+  <si>
+    <t>degré</t>
+  </si>
+  <si>
+    <t>Densité (acide éthanoïque)</t>
+  </si>
+  <si>
+    <t>Concentration</t>
   </si>
 </sst>
 </file>
@@ -653,7 +653,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -703,8 +703,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -734,7 +736,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -804,6 +805,33 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -811,12 +839,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -831,28 +853,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -861,48 +901,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -930,8 +928,22 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="51">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -956,6 +968,7 @@
     <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -980,6 +993,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1017,6 +1031,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1132,16 +1147,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3</c:v>
+                  <c:v>1.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1156,11 +1171,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2079259528"/>
-        <c:axId val="2079264280"/>
+        <c:axId val="2094490344"/>
+        <c:axId val="2094493192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2079259528"/>
+        <c:axId val="2094490344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1187,18 +1202,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079264280"/>
+        <c:crossAx val="2094493192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2079264280"/>
+        <c:axId val="2094493192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,19 +1247,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079259528"/>
+        <c:crossAx val="2094490344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1618,7 +1636,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1632,13 +1650,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="3" t="s">
@@ -1655,12 +1673,12 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="4" t="s">
@@ -1698,12 +1716,12 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="77"/>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="3" t="s">
@@ -1720,44 +1738,44 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="65">
+      <c r="D10" s="64">
         <v>10</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="73">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="73"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="64"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="66"/>
-      <c r="E11" s="68"/>
+      <c r="E11" s="74"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="66"/>
       <c r="B12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="53" t="s">
-        <v>67</v>
+      <c r="C12" s="52" t="s">
+        <v>65</v>
       </c>
       <c r="D12" s="14">
         <v>1.6</v>
       </c>
-      <c r="E12" s="54"/>
+      <c r="E12" s="53"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="68" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1772,12 +1790,10 @@
       <c r="E13" s="8">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="F13" s="74" t="s">
-        <v>72</v>
-      </c>
+      <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="78"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="7" t="s">
         <v>21</v>
       </c>
@@ -1790,10 +1806,9 @@
       <c r="E14" s="8">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="F14" s="75"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="78"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="7"/>
       <c r="C15" s="11" t="s">
         <v>20</v>
@@ -1806,24 +1821,24 @@
         <f>D15*SQRT((E14/D14)^2+(E13/D13)^2)</f>
         <v>5.0249378105604453E-2</v>
       </c>
-      <c r="F15" s="75"/>
+      <c r="F15" s="62"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="79"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D16" s="12">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="75"/>
+      <c r="F16" s="62"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="64" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1838,10 +1853,10 @@
       <c r="E17" s="10">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="F17" s="75"/>
+      <c r="F17" s="62"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="73"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="6" t="s">
         <v>21</v>
       </c>
@@ -1854,10 +1869,10 @@
       <c r="E18" s="10">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="F18" s="75"/>
+      <c r="F18" s="62"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="73"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="6"/>
       <c r="C19" s="11" t="s">
         <v>22</v>
@@ -1870,7 +1885,7 @@
         <f>D19*SQRT((E18/D18)^2+(E17/D17)^2)</f>
         <v>5.0990195135927854E-2</v>
       </c>
-      <c r="F19" s="75"/>
+      <c r="F19" s="62"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="66"/>
@@ -1878,16 +1893,16 @@
         <v>28</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D20" s="11">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="E20" s="11"/>
-      <c r="F20" s="75"/>
+      <c r="F20" s="62"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="68" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1902,10 +1917,10 @@
       <c r="E21" s="8">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="F21" s="75"/>
+      <c r="F21" s="62"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="78"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="7" t="s">
         <v>21</v>
       </c>
@@ -1918,10 +1933,10 @@
       <c r="E22" s="8">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="F22" s="75"/>
+      <c r="F22" s="62"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="78"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="7"/>
       <c r="C23" s="11" t="s">
         <v>23</v>
@@ -1934,24 +1949,24 @@
         <f>D23*SQRT((E22/D22)^2+(E21/D21)^2)</f>
         <v>5.2201532544552745E-2</v>
       </c>
-      <c r="F23" s="75"/>
+      <c r="F23" s="62"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="79"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D24" s="12">
         <v>0.95</v>
       </c>
       <c r="E24" s="12"/>
-      <c r="F24" s="75"/>
+      <c r="F24" s="62"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="76" t="s">
+      <c r="A25" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -1966,10 +1981,10 @@
       <c r="E25" s="10">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="F25" s="75"/>
+      <c r="F25" s="62"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1">
-      <c r="A26" s="76"/>
+      <c r="A26" s="67"/>
       <c r="B26" s="6" t="s">
         <v>21</v>
       </c>
@@ -1982,10 +1997,10 @@
       <c r="E26" s="10">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="F26" s="75"/>
+      <c r="F26" s="62"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="76"/>
+      <c r="A27" s="67"/>
       <c r="B27" s="6"/>
       <c r="C27" s="11" t="s">
         <v>20</v>
@@ -1998,32 +2013,31 @@
         <f>D27*SQRT((E26/D26)^2+(E25/D25)^2)</f>
         <v>5.385164807134505E-2</v>
       </c>
-      <c r="F27" s="75"/>
+      <c r="F27" s="62"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1">
-      <c r="A28" s="76"/>
+      <c r="A28" s="67"/>
       <c r="B28" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D28" s="12">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="E28" s="12"/>
-      <c r="F28" s="75"/>
     </row>
     <row r="29" spans="1:6">
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="B30" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
+      <c r="B30" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
     </row>
     <row r="31" spans="1:6">
       <c r="B31" s="3" t="s">
@@ -2041,49 +2055,46 @@
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D32" s="4">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="F32" s="62"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1"/>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="16">
         <f>D32*D6/D5</f>
-        <v>60.000000000000007</v>
-      </c>
-      <c r="E35" s="17">
+        <v>53</v>
+      </c>
+      <c r="E35" s="16">
         <f>D35*SQRT((E32/D32)^2+(E6/D6)^2+(E5/D5)^2)</f>
-        <v>16.970562748477143</v>
+        <v>14.990663761154808</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="F13:F28"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A28"/>
+  <mergeCells count="13">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2100,8 +2111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2112,191 +2123,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="G1" s="18"/>
+      <c r="A1" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="76" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76" t="s">
+      <c r="D5" s="67">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="67">
+        <v>0</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="76">
+      <c r="C7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="22">
         <v>0.01</v>
       </c>
-      <c r="E5" s="76">
-        <v>0</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="22" t="s">
+      <c r="E7" s="22">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="84"/>
+      <c r="B8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="E7" s="23">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C8" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="83"/>
-      <c r="B8" s="24" t="s">
+      <c r="D8" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="85"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="23">
-        <v>1E-4</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="84"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <f>D5*D7/D8</f>
         <v>1E-3</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <f>D9*SQRT((E8/D8)^2+(E7/D7)^2)</f>
         <v>2.2360679774997895E-6</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="29">
+      <c r="B10" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="28">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E10" s="5">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="76"/>
-      <c r="B11" s="30" t="s">
-        <v>46</v>
+      <c r="A11" s="67"/>
+      <c r="B11" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="31">
+        <v>45</v>
+      </c>
+      <c r="D11" s="30">
         <v>0.1</v>
       </c>
       <c r="E11" s="5">
         <v>1E-4</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="76"/>
-      <c r="C12" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="31">
+      <c r="A12" s="67"/>
+      <c r="C12" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="30">
         <f>D5*D10/D11</f>
         <v>2.5000000000000001E-3</v>
       </c>
@@ -2304,289 +2312,289 @@
         <f>D12*SQRT((E11/D11)^2+(E10/D10)^2)</f>
         <v>3.9051248379533266E-6</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="34">
+      <c r="B13" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="33">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="34">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="20"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="86"/>
-      <c r="B14" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="39">
+      <c r="A14" s="87"/>
+      <c r="B14" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="38">
         <v>0.05</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="34">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="87"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="39">
+      <c r="A15" s="88"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="38">
         <f>D5*D13/D14</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="34">
         <f>D15*SQRT((E14/D14)^2+(E13/D13)^2)</f>
         <v>8.4852813742385697E-6</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="29">
+      <c r="B16" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="28">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="42">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="89"/>
-      <c r="B17" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="31">
+      <c r="A17" s="90"/>
+      <c r="B17" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="30">
         <v>0.05</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="42">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="90"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="31">
+      <c r="A18" s="91"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="30">
         <f>D5*D16/D17</f>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="42">
         <f>D18*SQRT((E17/D17)^2+(E16/D16)^2)</f>
         <v>1.8357559750685819E-5</v>
       </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="82"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="95"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="48">
+      <c r="C23" s="47">
         <f>0.005</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="47">
         <f>0.000015</f>
         <v>1.5E-5</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="48">
+        <v>1.4999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="79"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="49">
-        <v>0.2</v>
-      </c>
-      <c r="D24" s="49">
-        <v>1.4999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="93" t="s">
+      <c r="B27" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="92"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="48" t="s">
+      <c r="C27" s="48">
+        <v>3.9399999999999999E-3</v>
+      </c>
+      <c r="D27" s="47"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="79"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="47"/>
+      <c r="B30" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="49">
-        <v>3.9399999999999999E-3</v>
-      </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="92"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="95"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="49">
+      <c r="C30" s="48">
         <f>C27*C24/C23</f>
         <v>0.15760000000000002</v>
       </c>
-      <c r="D30" s="49">
+      <c r="D30" s="48">
         <f>C30*SQRT((D27/C27)^2+(D24/C24)^2+(D23/C23)^2)</f>
         <v>4.8735108494800758E-4</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="95"/>
+      <c r="A32" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="49">
+      <c r="A33" s="47"/>
+      <c r="B33" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="48">
         <f>C36*C30</f>
         <v>9.2101440000000014</v>
       </c>
-      <c r="D33" s="49">
+      <c r="D33" s="48">
         <f>C33*D30/C30</f>
         <v>2.8480797404361564E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30">
-      <c r="A36" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="52">
+      <c r="A36" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="51">
         <v>58.44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2602,8 +2610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2615,115 +2623,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="80" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
+      <c r="A1" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="93" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
+      <c r="A3" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="82"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="55" t="s">
+      <c r="A5" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="56">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D6" s="107">
+        <f>G13</f>
+        <v>2.2638462845343542E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="44" customHeight="1">
+      <c r="A8" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="96"/>
+      <c r="F8" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="55">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="57">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D6" s="6">
-        <f>G12</f>
-        <v>1.2747548783981962E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="44" customHeight="1">
-      <c r="A8" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="98"/>
-      <c r="F8" s="101" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="102"/>
+      <c r="G8" s="100"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G9" s="5">
         <f>0.00005/2</f>
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="H9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="23">
+      <c r="A10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="22">
         <v>0.01</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="F10" s="58" t="s">
-        <v>87</v>
+      <c r="F10" s="57" t="s">
+        <v>83</v>
       </c>
       <c r="G10" s="5">
         <f>0.00005</f>
@@ -2731,77 +2739,78 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="99" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="23">
+      <c r="A11" s="97" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="108">
         <f>C5*C6/C10</f>
         <v>0.15</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="108">
         <f>C11*SQRT((D6/C6)^2+(D5/C5)^2+(D10/C10)^2)</f>
-        <v>1.3095800853708793E-3</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>88</v>
+        <v>2.2836374493338473E-3</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>84</v>
       </c>
       <c r="G11" s="5">
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="100"/>
-      <c r="B12" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="23">
+    <row r="12" spans="1:8" ht="15" customHeight="1">
+      <c r="A12" s="98"/>
+      <c r="B12" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="108">
         <f>C17*C11</f>
         <v>8.766</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="108">
         <f>C12*D11/C11</f>
-        <v>7.6531860189074194E-2</v>
-      </c>
-      <c r="F12" s="103" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="65">
-        <f>SQRT(G9^2+(G9+G10+G11)^2)</f>
-        <v>1.2747548783981962E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="F13" s="103"/>
-      <c r="G13" s="66"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="F15" t="s">
-        <v>106</v>
-      </c>
+        <v>0.13345577253907004</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="105">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30">
+      <c r="F13" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="106">
+        <f>SQRT(G9^2+(G9+G10+G11+G12)^2)</f>
+        <v>2.2638462845343542E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="F14" s="104"/>
+      <c r="G14" s="55"/>
     </row>
     <row r="17" spans="1:3" ht="30">
-      <c r="A17" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="52">
+      <c r="A17" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="51">
         <v>58.44</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2815,10 +2824,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2828,60 +2837,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="A1" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="104" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="19"/>
-      <c r="F3" s="101" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="102"/>
+      <c r="A3" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="18"/>
+      <c r="F3" s="99" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="100"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G4" s="5">
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="76">
+      <c r="C5" s="67">
         <v>1</v>
       </c>
-      <c r="D5" s="76">
+      <c r="D5" s="67">
         <v>1E-3</v>
       </c>
-      <c r="F5" s="58" t="s">
-        <v>87</v>
+      <c r="F5" s="57" t="s">
+        <v>83</v>
       </c>
       <c r="G5" s="5">
         <f>0.00005</f>
@@ -2889,12 +2898,12 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="F6" s="59" t="s">
-        <v>88</v>
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="F6" s="58" t="s">
+        <v>84</v>
       </c>
       <c r="G6" s="5">
         <f>0.00005</f>
@@ -2903,10 +2912,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" s="4">
         <v>0.25</v>
@@ -2914,10 +2923,10 @@
       <c r="D7" s="5">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="F7" s="103" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="65">
+      <c r="F7" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="64">
         <f>SQRT(G4^2+(G4+G5+G6)^2)</f>
         <v>1.5811388300841897E-4</v>
       </c>
@@ -2925,7 +2934,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C8" s="4">
         <f>(C5/B20)/C7</f>
@@ -2935,18 +2944,18 @@
         <f>C8*SQRT((D7/C7)^2+(D5/C5)^2)</f>
         <v>1.1661903789690601E-4</v>
       </c>
-      <c r="F8" s="103"/>
+      <c r="F8" s="101"/>
       <c r="G8" s="66"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C9" s="5">
-        <v>1.2E-2</v>
+        <v>1.34E-2</v>
       </c>
       <c r="D9" s="4">
         <f>G7</f>
@@ -2954,89 +2963,112 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="104" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="19"/>
+      <c r="A11" s="102" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="62">
+        <v>97</v>
+      </c>
+      <c r="C13" s="61">
         <v>1E-3</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="61">
         <v>6.9999999999999999E-6</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="13"/>
       <c r="B14" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="62">
+        <v>98</v>
+      </c>
+      <c r="C14" s="61">
         <f>C9*C8/C13</f>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="D14" s="62">
+        <v>1.34</v>
+      </c>
+      <c r="D14" s="61">
         <f>C14*SQRT((D13/C13)^2+(D9/C9)^2+(D8/C8)^2)</f>
-        <v>1.795879728712366E-2</v>
+        <v>1.8450648118697621E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4"/>
-      <c r="B15" s="60" t="s">
-        <v>104</v>
+      <c r="B15" s="59" t="s">
+        <v>100</v>
       </c>
       <c r="C15" s="5">
         <f>C14*B21*0.1</f>
-        <v>7.200000000000002</v>
+        <v>8.0400000000000009</v>
       </c>
       <c r="D15" s="5">
         <f>C15*D14/C14</f>
-        <v>0.10775278372274198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="104" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="104"/>
-    </row>
-    <row r="20" spans="1:2">
+        <v>0.11070388871218573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="102"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B20">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B21">
         <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="F24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24">
+        <f>G21/(B21*0.1)</f>
+        <v>1.3333333333333333</v>
       </c>
     </row>
   </sheetData>
